--- a/関連帳票類/機能設計/機能設計_管理者機能_スマホ版.xlsx
+++ b/関連帳票類/機能設計/機能設計_管理者機能_スマホ版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\Documents\IT関連・情報処理\ソフトウェア\安否確認システム\機能設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\Documents\IT関連・情報処理\ソフトウェア\安否確認システム\関連帳票類\機能設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE29F65-0A08-4DF0-85FF-55CEA5D1FC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB0EFB3-5BB1-4492-9014-6677544885FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{3BC8BB78-EBFE-4BA6-9ADF-137091827997}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{3BC8BB78-EBFE-4BA6-9ADF-137091827997}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="7" r:id="rId1"/>
@@ -8655,7 +8655,7 @@
   <dimension ref="X4:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -8856,7 +8856,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
